--- a/data/Supp.xlsx
+++ b/data/Supp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYDataScience\PD-related trail\eIPP_SR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5AA457-CE30-477E-89B8-4C345BB7471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBA137-8460-4845-9A33-D3C76FC6471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Char_include" sheetId="1" r:id="rId1"/>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1500,12 +1500,6 @@
       </c>
       <c r="I13" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f>MEDIAN(F2:F13)</f>
-        <v>51.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1888,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151D359-06A0-464C-8455-4B585E2A1EA7}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/data/Supp.xlsx
+++ b/data/Supp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYDataScience\PD-related trail\eIPP_SR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBA137-8460-4845-9A33-D3C76FC6471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590FE204-21C5-4D3F-906D-04856B1347D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Char_include" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="135">
   <si>
     <t>Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2235,10 +2235,10 @@
         <v>2.5</v>
       </c>
       <c r="E8">
-        <v>0.66</v>
-      </c>
-      <c r="F8">
-        <v>1.1999999999999999E-3</v>
+        <v>0.53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>

--- a/data/Supp.xlsx
+++ b/data/Supp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYDataScience\PD-related trail\eIPP_SR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590FE204-21C5-4D3F-906D-04856B1347D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FDD9F0-070C-4E34-88C9-7877FF20345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Char_include" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="145">
   <si>
     <t>Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,22 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Selection (0-4)</t>
-  </si>
-  <si>
-    <t>Comparability (0-2)</t>
-  </si>
-  <si>
-    <t>Outcome (0-3)</t>
-  </si>
-  <si>
-    <t>Total (0-9)</t>
-  </si>
-  <si>
-    <t>Aranda2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High Quality: 7-9 stars</t>
   </si>
   <si>
@@ -772,12 +756,57 @@
     <t>1 Calculated number of patients assuming a normal distribution, using 13cmH2O as the cutoff of 'high' and 'low' IPP as suggested in the study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Representativeness of the cases/cohort</t>
+  </si>
+  <si>
+    <t>Selection of the non-exposed cohort</t>
+  </si>
+  <si>
+    <t>Ventura2000</t>
+  </si>
+  <si>
+    <t>Lauro1999</t>
+  </si>
+  <si>
+    <t>Ascertainment of exposure</t>
+  </si>
+  <si>
+    <t>Demonstration that outcome of interest was not present at start of study</t>
+  </si>
+  <si>
+    <t>Comparability on the basis of design or analysis (max 2 stars)</t>
+  </si>
+  <si>
+    <t>Was follow-up long enough for outcomes to occur</t>
+  </si>
+  <si>
+    <t>Adequacy of follow up of cohorts</t>
+  </si>
+  <si>
+    <t>Total (max 9 stars)</t>
+  </si>
+  <si>
+    <t>Assessment of outcome</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Comparability</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,13 +830,59 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -822,16 +897,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1113,7 +1227,7 @@
       <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -1125,7 +1239,7 @@
     <col min="8" max="8" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1154,7 +1268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1183,7 +1297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1212,7 +1326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1241,7 +1355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1270,7 +1384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1299,7 +1413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1328,7 +1442,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1357,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1386,7 +1500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1415,7 +1529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1444,7 +1558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1473,7 +1587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1502,45 +1616,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="47.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1559,13 +1673,13 @@
       <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1579,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1593,7 +1707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1607,7 +1721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1621,7 +1735,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1635,7 +1749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1649,7 +1763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1663,7 +1777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1677,7 +1791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1691,7 +1805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1705,7 +1819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1719,7 +1833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1733,7 +1847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1747,12 +1861,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1765,112 +1879,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A1E9F4-22B7-4C3A-9B35-ED7F5FBC9793}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="60">
+      <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1882,11 +2335,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151D359-06A0-464C-8455-4B585E2A1EA7}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1898,30 +2351,30 @@
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="C1" t="s">
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
         <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
       </c>
       <c r="K1" t="s">
         <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1929,49 +2382,49 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1988,7 +2441,7 @@
         <v>0.42</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>0.2</v>
@@ -2009,19 +2462,19 @@
         <v>0.02</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2038,31 +2491,31 @@
         <v>0.69</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G4">
         <v>0.45</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O4">
         <v>0.38700000000000001</v>
@@ -2071,7 +2524,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2085,43 +2538,43 @@
         <v>12.8</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>-0.31900000000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2135,43 +2588,43 @@
         <v>0.54</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K6">
         <v>0.35499999999999998</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2188,40 +2641,40 @@
         <v>0.82</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>0.34</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K7">
         <v>0.36</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -2238,40 +2691,40 @@
         <v>0.53</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2300,13 +2753,13 @@
         <v>0.96</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M9">
         <v>0.1</v>
@@ -2315,13 +2768,13 @@
         <v>0.44</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2347,16 +2800,16 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M10">
         <v>0.14099999999999999</v>
@@ -2365,13 +2818,13 @@
         <v>0.309</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2388,7 +2841,7 @@
         <v>0.251</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G11">
         <v>0.14799999999999999</v>
@@ -2403,10 +2856,10 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M11">
         <v>8.9999999999999993E-3</v>
@@ -2415,13 +2868,13 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2435,43 +2888,43 @@
         <v>6.5</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2488,13 +2941,13 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I13">
         <v>0.113</v>
@@ -2503,10 +2956,10 @@
         <v>0.216</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M13">
         <v>0.28999999999999998</v>
@@ -2518,10 +2971,10 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2535,51 +2988,51 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2596,38 +3049,38 @@
       <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="C1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2641,7 +3094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -2658,9 +3111,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -2675,9 +3128,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>1.89</v>
@@ -2692,9 +3145,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>2826</v>
@@ -2709,7 +3162,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -2726,9 +3179,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>58.9</v>
@@ -2743,24 +3196,24 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2774,9 +3227,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>22.29</v>
@@ -2791,9 +3244,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>31.67</v>
@@ -2808,9 +3261,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>1.92</v>
@@ -2825,9 +3278,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C15">
         <v>2167</v>
@@ -2842,26 +3295,26 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C17">
         <v>60.72</v>
@@ -2876,9 +3329,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>8.18</v>
@@ -2893,7 +3346,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -2907,7 +3360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -2924,9 +3377,9 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>24.6</v>
@@ -2941,9 +3394,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>1.81</v>
@@ -2958,9 +3411,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <v>1877</v>
@@ -2975,7 +3428,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2992,9 +3445,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C25">
         <v>53</v>
@@ -3009,24 +3462,24 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -3040,7 +3493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -3057,9 +3510,9 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>29.5</v>
@@ -3074,60 +3527,60 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C33">
         <v>67.599999999999994</v>
@@ -3142,9 +3595,9 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C34">
         <v>5.0999999999999996</v>
@@ -3159,9 +3612,9 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3631,7 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -3186,28 +3639,28 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="D1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -3219,9 +3672,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -3233,7 +3686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -3247,24 +3700,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
         <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>22.29</v>
       </c>
@@ -3278,15 +3731,15 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3298,9 +3751,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="C9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>24</v>
@@ -3312,7 +3765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -3326,24 +3779,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="D12">
         <v>15.7</v>
       </c>
@@ -3357,15 +3810,15 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -3377,9 +3830,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>32</v>
@@ -3391,7 +3844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -3405,46 +3858,46 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
         <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="D17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>15.02</v>
@@ -3456,9 +3909,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="C19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D19">
         <v>46.94</v>
@@ -3470,7 +3923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -3484,24 +3937,24 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="C21" t="s">
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="D22">
         <v>18.399999999999999</v>
       </c>
@@ -3515,15 +3968,15 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3535,9 +3988,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3549,7 +4002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -3563,24 +4016,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="C26" t="s">
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="D27">
         <v>10.9</v>
       </c>
@@ -3594,19 +4047,19 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/Supp.xlsx
+++ b/data/Supp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYDataScience\PD-related trail\eIPP_SR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FDD9F0-070C-4E34-88C9-7877FF20345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F10748-2BF0-4876-AE75-7C40FD4206B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Char_include" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Newcastle-Ottawa Scale (NOS)" sheetId="3" r:id="rId3"/>
     <sheet name="IPP_factor" sheetId="4" r:id="rId4"/>
     <sheet name="Subgroup" sheetId="7" r:id="rId5"/>
-    <sheet name="Cx" sheetId="6" r:id="rId6"/>
+    <sheet name="Sensitivity" sheetId="8" r:id="rId6"/>
+    <sheet name="Cx" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="156">
   <si>
     <t>Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,12 +802,49 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>CI_Lower</t>
+  </si>
+  <si>
+    <t>CI_Upper</t>
+  </si>
+  <si>
+    <t>Effect Size</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>high_quality</t>
+  </si>
+  <si>
+    <t>moderate_quality</t>
+  </si>
+  <si>
+    <t>low_quality</t>
+  </si>
+  <si>
+    <t>p_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="185" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,6 +896,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -885,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -893,11 +945,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,6 +986,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1881,9 +1957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A1E9F4-22B7-4C3A-9B35-ED7F5FBC9793}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7:E7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15.75"/>
@@ -2336,7 +2412,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3624,6 +3700,452 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD9C58E-84D5-443A-A0D6-BFB0E3D719B6}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.46969974721199592</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.24388636476592049</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.64720145600860723</v>
+      </c>
+      <c r="F2" s="17">
+        <v>78.489070578863533</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2.979028537659079E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.51143142764189142</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.30094143839379861</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.67440429015492009</v>
+      </c>
+      <c r="F3" s="17">
+        <v>59.865312035701322</v>
+      </c>
+      <c r="G3" s="17">
+        <v>5.8208696414837502E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.23513292032970279</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.553988850977203E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.43308742435430708</v>
+      </c>
+      <c r="F5" s="17">
+        <v>52.222063112300937</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.1233146221726468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.16055291708427291</v>
+      </c>
+      <c r="D6" s="17">
+        <v>-4.2908125267786274E-3</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.31690177043818551</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.52765187825139304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.61723073900048508</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-0.39382658404489268</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.95243421323628941</v>
+      </c>
+      <c r="F8" s="17">
+        <v>98.641324510461246</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="17">
+        <v>-0.12999999999999989</v>
+      </c>
+      <c r="D9" s="17">
+        <v>-0.34396725096336478</v>
+      </c>
+      <c r="E9" s="17">
+        <v>9.6801450482545126E-2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="17">
+        <v>-0.16087235892324539</v>
+      </c>
+      <c r="D12" s="17">
+        <v>-0.42508043625326047</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.12859650535452041</v>
+      </c>
+      <c r="F12" s="17">
+        <v>66.574353677061637</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5.0201278928300952E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.35499999999999993</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-6.0488938353608166E-3</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.63416677282318801</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.15613848900569621</v>
+      </c>
+      <c r="D14" s="17">
+        <v>-2.3079792238078701E-2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.32563380066168279</v>
+      </c>
+      <c r="F14" s="17">
+        <v>46.464486742509621</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.1544447339982932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D15" s="17">
+        <v>-0.1317390289680628</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.39389381448181049</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.3559991212192356</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.21711607369388311</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.48075534542974768</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.77441495733071064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB50EA1-25FD-4C00-9630-9306AEBE3511}">
   <dimension ref="A1:H31"/>
   <sheetViews>

--- a/data/Supp.xlsx
+++ b/data/Supp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYDataScience\PD-related trail\eIPP_SR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F10748-2BF0-4876-AE75-7C40FD4206B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EFA052-E50E-4FE2-B4F9-09661C42511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Char_include" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="157">
   <si>
     <t>Author</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,15 +836,18 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>IPP, intraperitoneal pressure; SD Standard deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,22 +967,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,39 +988,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1299,23 +1276,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1344,7 +1321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1373,7 +1350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1402,7 +1379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1431,7 +1408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1460,7 +1437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1489,7 +1466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1518,7 +1495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1547,7 +1524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1576,7 +1553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1605,7 +1582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1634,7 +1611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1663,7 +1640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -1692,45 +1669,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="47.25">
+    <row r="19" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1746,16 +1723,16 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+      <selection activeCell="Q26" sqref="Q26:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1769,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1783,7 +1760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1797,7 +1774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1811,7 +1788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1825,7 +1802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1839,7 +1816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1853,7 +1830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1867,7 +1844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1881,7 +1858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1895,7 +1872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1909,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1923,7 +1900,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1937,12 +1914,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1962,14 +1944,14 @@
       <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>141</v>
@@ -1985,9 +1967,9 @@
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="60">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2015,11 +1997,11 @@
       <c r="I2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2043,11 +2025,11 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -2075,11 +2057,11 @@
       <c r="I4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
@@ -2101,11 +2083,11 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
@@ -2123,11 +2105,11 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -2151,11 +2133,11 @@
       <c r="I7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
@@ -2175,11 +2157,11 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
@@ -2205,11 +2187,11 @@
       <c r="I9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -2233,11 +2215,11 @@
         <v>144</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -2263,11 +2245,11 @@
       <c r="I11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>82</v>
       </c>
@@ -2285,11 +2267,11 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -2317,11 +2299,11 @@
       <c r="I13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2343,11 +2325,11 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2357,9 +2339,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -2371,9 +2353,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
@@ -2385,9 +2367,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
@@ -2399,7 +2381,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2412,10 +2394,10 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -2427,7 +2409,7 @@
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>49</v>
       </c>
@@ -2450,7 +2432,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2500,7 +2482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2550,7 +2532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2600,7 +2582,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2650,7 +2632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2700,7 +2682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2750,7 +2732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -2800,7 +2782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2850,7 +2832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2900,7 +2882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2950,7 +2932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -3000,7 +2982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3050,7 +3032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -3100,13 +3082,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:16">
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -3121,17 +3103,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58F582C-058B-4AC1-8E6F-311DDA9154AA}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>117</v>
       </c>
@@ -3139,7 +3121,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3156,7 +3138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3170,7 +3152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -3187,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -3204,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -3221,7 +3203,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>111</v>
       </c>
@@ -3238,7 +3220,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -3255,7 +3237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>112</v>
       </c>
@@ -3272,7 +3254,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>116</v>
       </c>
@@ -3289,7 +3271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3303,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>119</v>
       </c>
@@ -3320,7 +3302,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>99</v>
       </c>
@@ -3337,7 +3319,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>106</v>
       </c>
@@ -3354,7 +3336,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>111</v>
       </c>
@@ -3371,7 +3353,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3370,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>112</v>
       </c>
@@ -3405,7 +3387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>116</v>
       </c>
@@ -3422,7 +3404,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -3436,7 +3418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -3453,7 +3435,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -3470,7 +3452,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>106</v>
       </c>
@@ -3487,7 +3469,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>111</v>
       </c>
@@ -3504,7 +3486,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -3521,7 +3503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>112</v>
       </c>
@@ -3538,7 +3520,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>116</v>
       </c>
@@ -3555,7 +3537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -3569,7 +3551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -3586,7 +3568,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -3603,7 +3585,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>106</v>
       </c>
@@ -3620,7 +3602,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>111</v>
       </c>
@@ -3637,7 +3619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -3654,7 +3636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>112</v>
       </c>
@@ -3671,7 +3653,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>116</v>
       </c>
@@ -3688,7 +3670,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -3703,11 +3685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD9C58E-84D5-443A-A0D6-BFB0E3D719B6}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -3718,427 +3700,427 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>0.46969974721199592</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>0.24388636476592049</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <v>0.64720145600860723</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>78.489070578863533</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <v>2.979028537659079E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>0.51143142764189142</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>0.30094143839379861</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>0.67440429015492009</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>59.865312035701322</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>5.8208696414837502E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>0.23513292032970279</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>1.553988850977203E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>0.43308742435430708</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>52.222063112300937</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>0.1233146221726468</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>0.16055291708427291</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>-4.2908125267786274E-3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>0.31690177043818551</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>0.52765187825139304</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>0.61723073900048508</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>-0.39382658404489268</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>0.95243421323628941</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>98.641324510461246</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>-0.12999999999999989</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>-0.34396725096336478</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>9.6801450482545126E-2</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>-0.16087235892324539</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>-0.42508043625326047</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>0.12859650535452041</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <v>66.574353677061637</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>5.0201278928300952E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>0.35499999999999993</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>-6.0488938353608166E-3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>0.63416677282318801</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>0.15613848900569621</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>-2.3079792238078701E-2</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>0.32563380066168279</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="14">
         <v>46.464486742509621</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>0.1544447339982932</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>-0.1317390289680628</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>0.39389381448181049</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>0</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>0.3559991212192356</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>0.21711607369388311</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>0.48075534542974768</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="14">
         <v>0.77441495733071064</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4149,11 +4131,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB50EA1-25FD-4C00-9630-9306AEBE3511}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -4161,7 +4143,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>117</v>
       </c>
@@ -4169,12 +4151,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -4194,7 +4176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>122</v>
       </c>
@@ -4208,7 +4190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -4222,7 +4204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>49</v>
       </c>
@@ -4239,7 +4221,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>22.29</v>
       </c>
@@ -4253,7 +4235,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -4273,7 +4255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>122</v>
       </c>
@@ -4287,7 +4269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -4301,7 +4283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -4318,7 +4300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>15.7</v>
       </c>
@@ -4332,7 +4314,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4352,7 +4334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>122</v>
       </c>
@@ -4366,7 +4348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4380,7 +4362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -4397,7 +4379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>101</v>
       </c>
@@ -4411,7 +4393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -4431,7 +4413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>122</v>
       </c>
@@ -4445,7 +4427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -4459,7 +4441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>49</v>
       </c>
@@ -4476,7 +4458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>18.399999999999999</v>
       </c>
@@ -4490,7 +4472,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -4510,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>122</v>
       </c>
@@ -4524,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -4538,7 +4520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>49</v>
       </c>
@@ -4555,7 +4537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>10.9</v>
       </c>
@@ -4569,17 +4551,17 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
